--- a/models.xlsx
+++ b/models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harry/Data/harry/rails/apmops_on_rails/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53809C5C-628C-C04D-BC73-AD5753022309}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DC8259-013E-6246-BC99-2D5751E09BDA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="440" windowWidth="27900" windowHeight="17560" xr2:uid="{C64A74A9-772C-3F4C-8D0D-D2930E1ADD44}"/>
+    <workbookView xWindow="3840" yWindow="440" windowWidth="13500" windowHeight="17560" xr2:uid="{C64A74A9-772C-3F4C-8D0D-D2930E1ADD44}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="79">
   <si>
     <t>User</t>
   </si>
@@ -159,9 +159,6 @@
     <t>very hard</t>
   </si>
   <si>
-    <t>Answer</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -198,15 +195,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>float_ans</t>
-  </si>
-  <si>
-    <t>integer_ans</t>
-  </si>
-  <si>
-    <t>string_ans</t>
-  </si>
-  <si>
     <t>Purchase: User purchase paper</t>
   </si>
   <si>
@@ -241,13 +229,46 @@
   </si>
   <si>
     <t>invitation</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>paper_id</t>
+  </si>
+  <si>
+    <t>Cracking</t>
+  </si>
+  <si>
+    <t>current_question</t>
+  </si>
+  <si>
+    <t>Cracked</t>
+  </si>
+  <si>
+    <t>Solve</t>
+  </si>
+  <si>
+    <t>question_id</t>
+  </si>
+  <si>
+    <t>Wishlist</t>
+  </si>
+  <si>
+    <t>Bookmark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,6 +288,13 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -358,7 +386,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,6 +427,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -407,7 +450,191 @@
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="36">
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -652,55 +879,99 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E92CAEE-C908-3F46-8A5C-1888B309F22A}" name="Table4" displayName="Table4" ref="B4:C26" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E92CAEE-C908-3F46-8A5C-1888B309F22A}" name="Table4" displayName="Table4" ref="B4:C26" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B4:C26" xr:uid="{13533092-8E77-4140-9E5D-B6623534AB35}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{22026AC5-B3DC-1E46-8E05-F4214543EDB9}" name="Attribute" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{31CF3DA3-2CA8-A44A-AAE3-114930FC9433}" name="Type" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{22026AC5-B3DC-1E46-8E05-F4214543EDB9}" name="Attribute" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{31CF3DA3-2CA8-A44A-AAE3-114930FC9433}" name="Type" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C606A97B-3F84-F344-8129-DB817A563A56}" name="Table46" displayName="Table46" ref="E4:F26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C606A97B-3F84-F344-8129-DB817A563A56}" name="Table46" displayName="Table46" ref="E4:F26" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="E4:F26" xr:uid="{AB80E9A9-B6CA-094E-BB3E-24BCBF583253}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{93C6D5D0-0047-5C45-BA03-1209D99CB622}" name="Attribute" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C759882D-F2E3-5146-A62A-1C6C1B70D162}" name="Type" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{93C6D5D0-0047-5C45-BA03-1209D99CB622}" name="Attribute" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{C759882D-F2E3-5146-A62A-1C6C1B70D162}" name="Type" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B78C7EBD-F799-C74F-9E61-359C582F084F}" name="Table467" displayName="Table467" ref="H4:I26" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B78C7EBD-F799-C74F-9E61-359C582F084F}" name="Table467" displayName="Table467" ref="H4:I26" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="H4:I26" xr:uid="{07D5AF2A-B9E5-3B49-B6F1-49F016799A01}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{868ADA92-50F6-0348-A2E1-71EF49BDFFD2}" name="Attribute" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B8483073-9447-7A48-97B8-E7DC53D137DF}" name="Type" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{868ADA92-50F6-0348-A2E1-71EF49BDFFD2}" name="Attribute" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{B8483073-9447-7A48-97B8-E7DC53D137DF}" name="Type" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8DEC1A6E-0142-F644-97A8-ACD7F0EC45D1}" name="Table4678" displayName="Table4678" ref="K4:L26" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8DEC1A6E-0142-F644-97A8-ACD7F0EC45D1}" name="Table4678" displayName="Table4678" ref="K4:L26" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="K4:L26" xr:uid="{7064808E-76E4-A643-A1B5-0D6116ADD2B8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6967394A-577D-504E-8F4C-F87EED6A46A8}" name="Attribute" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{6F77BC24-7B8B-0F4B-9D69-78F953C70A80}" name="Type" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{6967394A-577D-504E-8F4C-F87EED6A46A8}" name="Attribute" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{6F77BC24-7B8B-0F4B-9D69-78F953C70A80}" name="Type" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6A0D55E2-5F81-724B-8352-5390718082B0}" name="Table467810" displayName="Table467810" ref="N4:O26" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6A0D55E2-5F81-724B-8352-5390718082B0}" name="Table467810" displayName="Table467810" ref="N4:O26" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="N4:O26" xr:uid="{31E66401-C5B7-484D-8FCE-1D4ED9569113}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1F564256-02B4-F845-86E3-3CED9D5A077F}" name="Attribute" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{F3D3CF74-2333-584C-8078-198C51610139}" name="Type" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1F564256-02B4-F845-86E3-3CED9D5A077F}" name="Attribute" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{F3D3CF74-2333-584C-8078-198C51610139}" name="Type" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C662790-867D-FB4F-B426-2BE89B1D3AC4}" name="Table4678102" displayName="Table4678102" ref="Q4:R26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="Q4:R26" xr:uid="{A63F8C19-3504-8541-858C-37BE92991A27}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E6D7FEC6-D15B-F049-9B2D-9AD45FD19EC9}" name="Attribute" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{558F446D-AFC8-4F4E-A378-382191C93088}" name="Type" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{49D7D264-CFD4-5147-9DFA-CC9BA2BAC187}" name="Table46781023" displayName="Table46781023" ref="T4:U26" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="T4:U26" xr:uid="{B6D85762-6FA0-EA4D-A222-8FCC952C5F68}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{227A5343-6914-CB48-9779-6D61250655BD}" name="Attribute" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E991D1B2-43F0-EE4B-955F-2F072A27B1B6}" name="Type" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B06B53E5-92B2-9945-B27A-A4C1D2E49F50}" name="Table467810234" displayName="Table467810234" ref="W4:X26" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="W4:X26" xr:uid="{4122AEF8-F0C3-F342-958F-9D7A73DC4067}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{96C4D7DD-83F7-CD41-B28E-0A8DDD0B51AE}" name="Attribute" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{EB67BAD2-CF0D-934C-BECE-B23C11F65327}" name="Type" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9BD09163-EF06-9042-8CD4-D9A4D12AE989}" name="Table4678102349" displayName="Table4678102349" ref="Z4:AA26" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="Z4:AA26" xr:uid="{D68A1131-298E-6F41-9BAF-25928FBF77D1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{27BA2709-6639-0A4C-8A54-34C8E0B8D131}" name="Attribute" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{68049B10-1E77-C14F-854C-9946B4EEFD9C}" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1003,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F974868-90AD-554E-8400-7EFCED897398}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1023,17 +1294,25 @@
     <col min="13" max="13" width="10.83203125" style="2"/>
     <col min="14" max="14" width="14" style="2" customWidth="1"/>
     <col min="15" max="16" width="10.83203125" style="2"/>
-    <col min="17" max="17" width="35" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="2"/>
+    <col min="17" max="17" width="19.5" style="2" customWidth="1"/>
+    <col min="18" max="19" width="10.83203125" style="2"/>
+    <col min="20" max="20" width="16.6640625" style="2" customWidth="1"/>
+    <col min="21" max="22" width="10.83203125" style="2"/>
+    <col min="23" max="23" width="14.83203125" style="2" customWidth="1"/>
+    <col min="24" max="25" width="10.83203125" style="2"/>
+    <col min="26" max="26" width="14.6640625" style="2" customWidth="1"/>
+    <col min="27" max="28" width="10.83203125" style="2"/>
+    <col min="29" max="29" width="15.1640625" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31">
+    <row r="1" spans="1:27" ht="31">
       <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="12"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:27">
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1050,12 +1329,28 @@
         <v>36</v>
       </c>
       <c r="L3" s="13"/>
-      <c r="N3" s="9" t="s">
-        <v>44</v>
+      <c r="N3" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+      <c r="Q3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="11"/>
+      <c r="T3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="W3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="11"/>
+      <c r="Z3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" s="4" customFormat="1">
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1086,8 +1381,32 @@
       <c r="O4" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="Q4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1118,8 +1437,32 @@
       <c r="O5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1145,13 +1488,37 @@
         <v>34</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1174,16 +1541,40 @@
         <v>38</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1197,25 +1588,41 @@
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>47</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1229,25 +1636,29 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="7"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="7"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1261,21 +1672,29 @@
         <v>8</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="7"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="7"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:27">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1289,17 +1708,29 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1318,8 +1749,16 @@
       <c r="L12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1338,8 +1777,16 @@
       <c r="L13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1358,8 +1805,16 @@
       <c r="L14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1378,8 +1833,16 @@
       <c r="L15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1398,8 +1861,16 @@
       <c r="L16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:17">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="2:27">
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1418,8 +1889,16 @@
       <c r="L17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:17">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="2:27">
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1438,8 +1917,16 @@
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:17">
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="2:27">
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1458,8 +1945,16 @@
       <c r="L19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="2:17">
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="2:27">
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1478,8 +1973,16 @@
       <c r="L20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="2:17">
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="2:27">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1498,8 +2001,16 @@
       <c r="L21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="2:17">
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="2:27">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1518,8 +2029,16 @@
       <c r="L22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="2:17">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="2:27">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1538,8 +2057,16 @@
       <c r="L23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="2:17">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="2:27">
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1558,8 +2085,16 @@
       <c r="L24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="2:17">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="2:27">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1578,8 +2113,16 @@
       <c r="L25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="2:17">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="2:27">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1593,22 +2136,30 @@
         <v>27</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="28" spans="2:17">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="28" spans="2:27">
       <c r="H28" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>38</v>
@@ -1616,134 +2167,127 @@
       <c r="L28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="15"/>
       <c r="Q28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27">
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="15"/>
       <c r="Q29" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27">
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
       <c r="Q30" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27">
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
       <c r="Q31" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27">
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
       <c r="Q32" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="11:17">
-      <c r="N33" s="1"/>
-      <c r="O33" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
       <c r="Q33" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="11:17">
       <c r="K34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
       <c r="Q34" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="11:17">
       <c r="K35" s="5"/>
       <c r="L35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="Q35" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="11:17">
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="11:17">
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="11:17">
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="11:17">
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="11:17">
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -1753,12 +2297,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="5">
+  <tableParts count="9">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>